--- a/scoresheets_clean/SATAQ.xlsx
+++ b/scoresheets_clean/SATAQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumb/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BC790DB1-8AC8-014C-B712-20A31EE6AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AD7A2842-5F67-BD4F-94FF-65304AF85FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="820" windowWidth="24060" windowHeight="10720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5080" yWindow="820" windowWidth="29320" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SATAQ_scoreheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="521" uniqueCount="104">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="560" uniqueCount="110">
   <si>
     <t>raw_vars</t>
   </si>
@@ -201,9 +201,6 @@
     <t>I feel pressure from the media to decrease my level of body fat.</t>
   </si>
   <si>
-    <t>sataq_athletic,sataq_muscular,sataq_thin,sataq_no_fat,sataq_look_thin,sataq_look_athletic,sataq_think_athletic,sataq_look_lean,sataq_little_fat,sataq_look_muscular,sataq_family_thin,sataq_family_improve,sataq_family_fat,sataq_family_shape,sataq_peer_thin,sataq_peer_improve,sataq_peer_shape,sataq_peer_body_fat,sataq_media_shape,sataq_media_thin,sataq_media_look,sataq_media_fat</t>
-  </si>
-  <si>
     <t xml:space="preserve">select </t>
   </si>
   <si>
@@ -337,6 +334,27 @@
   </si>
   <si>
     <t>average of SATAQ total score</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>redcap_event_name</t>
+  </si>
+  <si>
+    <t>timepoint</t>
+  </si>
+  <si>
+    <t>record_id, redcap_event_name, sataq_athletic,sataq_muscular,sataq_thin,sataq_no_fat,sataq_look_thin,sataq_look_athletic,sataq_think_athletic,sataq_look_lean,sataq_little_fat,sataq_look_muscular,sataq_family_thin,sataq_family_improve,sataq_family_fat,sataq_family_shape,sataq_peer_thin,sataq_peer_improve,sataq_peer_shape,sataq_peer_body_fat,sataq_media_shape,sataq_media_thin,sataq_media_look,sataq_media_fat</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -820,8 +838,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1177,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1223,85 +1244,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1330,13 +1348,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1365,13 +1383,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1400,13 +1418,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1435,13 +1453,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1470,13 +1488,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1505,13 +1523,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1540,13 +1558,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1575,13 +1593,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1610,13 +1628,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1645,13 +1663,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1680,13 +1698,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1715,13 +1733,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1750,13 +1768,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1785,13 +1803,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1820,13 +1838,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1855,13 +1873,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1890,13 +1908,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1925,13 +1943,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1960,13 +1978,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1995,22 +2013,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -2030,25 +2048,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -2065,130 +2083,130 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27">
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
         <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
@@ -2205,25 +2223,25 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
         <v>62</v>
-      </c>
-      <c r="G30" t="s">
-        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -2240,25 +2258,25 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
         <v>62</v>
-      </c>
-      <c r="G31" t="s">
-        <v>63</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
@@ -2275,25 +2293,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
         <v>62</v>
-      </c>
-      <c r="G32" t="s">
-        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -2310,25 +2328,25 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
         <v>62</v>
-      </c>
-      <c r="G33" t="s">
-        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2345,25 +2363,25 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
         <v>62</v>
-      </c>
-      <c r="G34" t="s">
-        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -2380,25 +2398,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
         <v>62</v>
-      </c>
-      <c r="G35" t="s">
-        <v>63</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2415,25 +2433,25 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
         <v>62</v>
-      </c>
-      <c r="G36" t="s">
-        <v>63</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -2450,25 +2468,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
         <v>62</v>
-      </c>
-      <c r="G37" t="s">
-        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -2485,25 +2503,25 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
         <v>62</v>
-      </c>
-      <c r="G38" t="s">
-        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -2520,25 +2538,25 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
         <v>62</v>
-      </c>
-      <c r="G39" t="s">
-        <v>63</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
@@ -2555,25 +2573,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
         <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>63</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -2590,25 +2608,25 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
         <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
@@ -2625,25 +2643,25 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
         <v>62</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
@@ -2660,25 +2678,25 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
         <v>62</v>
-      </c>
-      <c r="G43" t="s">
-        <v>63</v>
       </c>
       <c r="H43" t="s">
         <v>12</v>
@@ -2695,25 +2713,25 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
         <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>63</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
@@ -2730,25 +2748,25 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" t="s">
         <v>62</v>
-      </c>
-      <c r="G45" t="s">
-        <v>63</v>
       </c>
       <c r="H45" t="s">
         <v>12</v>
@@ -2765,25 +2783,25 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
         <v>62</v>
-      </c>
-      <c r="G46" t="s">
-        <v>63</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
@@ -2800,25 +2818,25 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
@@ -2835,25 +2853,25 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
@@ -2870,25 +2888,25 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H49" t="s">
         <v>12</v>
@@ -2905,25 +2923,25 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
@@ -2940,16 +2958,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2975,16 +2993,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3005,6 +3023,146 @@
         <v>12</v>
       </c>
       <c r="K52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" t="s">
         <v>12</v>
       </c>
     </row>
